--- a/Baggae testing.xlsx
+++ b/Baggae testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397382C8-0C49-4669-8174-9BF16C9F0243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB156459-8047-42B9-8186-6DC26E33E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16913510-F268-403B-A2B7-425D04F5D302}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="255">
   <si>
     <t>TAW</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>TS</t>
+  </si>
+  <si>
+    <t>Checked Baggage (TAW)</t>
+  </si>
+  <si>
+    <t>Cabin Baggage (TAW)</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,18 +1166,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9384A4-1844-4F53-8ECD-4C854B0E8794}">
   <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1539,32 +1545,32 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
       <c r="S4" s="7"/>
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="6"/>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="37" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="9"/>
       <c r="M5" s="40" t="s">
         <v>4</v>
@@ -1576,11 +1582,11 @@
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" s="45"/>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="35"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="39"/>
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1600,22 +1606,22 @@
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>13</v>
@@ -2952,7 +2958,7 @@
       <c r="K28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="33" t="s">
         <v>50</v>
       </c>
       <c r="M28" s="21" t="s">
@@ -3015,7 +3021,7 @@
       <c r="K29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="21" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3082,7 @@
       <c r="K30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="32"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="21" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +3143,7 @@
       <c r="K31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="32"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="21" t="s">
         <v>19</v>
       </c>
@@ -11214,7 +11220,7 @@
       <c r="I166" s="20"/>
       <c r="J166" s="21"/>
       <c r="K166" s="20"/>
-      <c r="L166" s="32" t="s">
+      <c r="L166" s="33" t="s">
         <v>146</v>
       </c>
       <c r="M166" s="21"/>
@@ -11259,7 +11265,7 @@
       <c r="I167" s="20"/>
       <c r="J167" s="21"/>
       <c r="K167" s="20"/>
-      <c r="L167" s="32"/>
+      <c r="L167" s="33"/>
       <c r="M167" s="21"/>
       <c r="N167" s="20"/>
       <c r="O167" s="20"/>
@@ -11298,7 +11304,7 @@
       <c r="I168" s="20"/>
       <c r="J168" s="21"/>
       <c r="K168" s="20"/>
-      <c r="L168" s="32"/>
+      <c r="L168" s="33"/>
       <c r="M168" s="21"/>
       <c r="N168" s="20"/>
       <c r="O168" s="20"/>
@@ -11395,7 +11401,7 @@
       <c r="I170" s="20"/>
       <c r="J170" s="21"/>
       <c r="K170" s="20"/>
-      <c r="L170" s="32" t="s">
+      <c r="L170" s="33" t="s">
         <v>146</v>
       </c>
       <c r="M170" s="21"/>
@@ -11440,7 +11446,7 @@
       <c r="I171" s="20"/>
       <c r="J171" s="21"/>
       <c r="K171" s="20"/>
-      <c r="L171" s="32"/>
+      <c r="L171" s="33"/>
       <c r="M171" s="21"/>
       <c r="N171" s="20"/>
       <c r="O171" s="20"/>
@@ -11479,7 +11485,7 @@
       <c r="I172" s="20"/>
       <c r="J172" s="21"/>
       <c r="K172" s="20"/>
-      <c r="L172" s="32"/>
+      <c r="L172" s="33"/>
       <c r="M172" s="21"/>
       <c r="N172" s="20"/>
       <c r="O172" s="20"/>
@@ -11576,7 +11582,7 @@
       <c r="I174" s="20"/>
       <c r="J174" s="21"/>
       <c r="K174" s="20"/>
-      <c r="L174" s="32" t="s">
+      <c r="L174" s="33" t="s">
         <v>151</v>
       </c>
       <c r="M174" s="21"/>
@@ -11617,7 +11623,7 @@
       <c r="I175" s="20"/>
       <c r="J175" s="21"/>
       <c r="K175" s="20"/>
-      <c r="L175" s="32"/>
+      <c r="L175" s="33"/>
       <c r="M175" s="21"/>
       <c r="N175" s="20"/>
       <c r="O175" s="20"/>
@@ -11652,7 +11658,7 @@
       <c r="I176" s="20"/>
       <c r="J176" s="21"/>
       <c r="K176" s="20"/>
-      <c r="L176" s="32"/>
+      <c r="L176" s="33"/>
       <c r="M176" s="21"/>
       <c r="N176" s="20"/>
       <c r="O176" s="20"/>
@@ -11687,7 +11693,7 @@
       <c r="I177" s="20"/>
       <c r="J177" s="21"/>
       <c r="K177" s="20"/>
-      <c r="L177" s="32"/>
+      <c r="L177" s="33"/>
       <c r="M177" s="21"/>
       <c r="N177" s="20"/>
       <c r="O177" s="20"/>
@@ -12387,7 +12393,7 @@
       <c r="K190" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L190" s="36" t="s">
+      <c r="L190" s="32" t="s">
         <v>164</v>
       </c>
       <c r="M190" s="21" t="s">
@@ -12450,7 +12456,7 @@
       <c r="K191" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L191" s="32"/>
+      <c r="L191" s="33"/>
       <c r="M191" s="21"/>
       <c r="N191" s="20"/>
       <c r="O191" s="20" t="s">
@@ -12507,7 +12513,7 @@
       <c r="K192" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L192" s="32"/>
+      <c r="L192" s="33"/>
       <c r="M192" s="21"/>
       <c r="N192" s="20"/>
       <c r="O192" s="20"/>
@@ -12560,7 +12566,7 @@
       <c r="K193" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L193" s="32"/>
+      <c r="L193" s="33"/>
       <c r="M193" s="21"/>
       <c r="N193" s="20"/>
       <c r="O193" s="20"/>
@@ -12613,7 +12619,7 @@
       <c r="K194" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L194" s="32"/>
+      <c r="L194" s="33"/>
       <c r="M194" s="21"/>
       <c r="N194" s="20"/>
       <c r="O194" s="20"/>
@@ -12760,7 +12766,7 @@
       <c r="I197" s="20"/>
       <c r="J197" s="21"/>
       <c r="K197" s="20"/>
-      <c r="L197" s="32" t="s">
+      <c r="L197" s="33" t="s">
         <v>172</v>
       </c>
       <c r="M197" s="21"/>
@@ -12801,7 +12807,7 @@
       <c r="I198" s="20"/>
       <c r="J198" s="21"/>
       <c r="K198" s="20"/>
-      <c r="L198" s="32"/>
+      <c r="L198" s="33"/>
       <c r="M198" s="21"/>
       <c r="N198" s="20"/>
       <c r="O198" s="20"/>
@@ -12840,7 +12846,7 @@
       <c r="I199" s="20"/>
       <c r="J199" s="21"/>
       <c r="K199" s="20"/>
-      <c r="L199" s="32"/>
+      <c r="L199" s="33"/>
       <c r="M199" s="21"/>
       <c r="N199" s="20"/>
       <c r="O199" s="20"/>
@@ -12879,7 +12885,7 @@
       <c r="I200" s="20"/>
       <c r="J200" s="21"/>
       <c r="K200" s="20"/>
-      <c r="L200" s="32"/>
+      <c r="L200" s="33"/>
       <c r="M200" s="21"/>
       <c r="N200" s="20"/>
       <c r="O200" s="20"/>
@@ -12918,7 +12924,7 @@
       <c r="I201" s="20"/>
       <c r="J201" s="21"/>
       <c r="K201" s="20"/>
-      <c r="L201" s="32"/>
+      <c r="L201" s="33"/>
       <c r="M201" s="21"/>
       <c r="N201" s="20"/>
       <c r="O201" s="20"/>
@@ -12957,7 +12963,7 @@
       <c r="I202" s="20"/>
       <c r="J202" s="21"/>
       <c r="K202" s="20"/>
-      <c r="L202" s="32"/>
+      <c r="L202" s="33"/>
       <c r="M202" s="21"/>
       <c r="N202" s="20"/>
       <c r="O202" s="20"/>
@@ -13190,7 +13196,7 @@
       <c r="K206" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L206" s="32" t="s">
+      <c r="L206" s="33" t="s">
         <v>185</v>
       </c>
       <c r="M206" s="21" t="s">
@@ -13253,7 +13259,7 @@
       <c r="K207" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L207" s="32"/>
+      <c r="L207" s="33"/>
       <c r="M207" s="21" t="s">
         <v>19</v>
       </c>
@@ -13601,7 +13607,7 @@
       <c r="I213" s="20"/>
       <c r="J213" s="21"/>
       <c r="K213" s="20"/>
-      <c r="L213" s="32" t="s">
+      <c r="L213" s="33" t="s">
         <v>198</v>
       </c>
       <c r="M213" s="21"/>
@@ -13648,7 +13654,7 @@
       <c r="I214" s="20"/>
       <c r="J214" s="21"/>
       <c r="K214" s="20"/>
-      <c r="L214" s="32"/>
+      <c r="L214" s="33"/>
       <c r="M214" s="21"/>
       <c r="N214" s="20"/>
       <c r="O214" s="20"/>
@@ -13689,7 +13695,7 @@
       <c r="I215" s="20"/>
       <c r="J215" s="21"/>
       <c r="K215" s="20"/>
-      <c r="L215" s="32"/>
+      <c r="L215" s="33"/>
       <c r="M215" s="21"/>
       <c r="N215" s="20"/>
       <c r="O215" s="20"/>
@@ -14066,7 +14072,7 @@
       <c r="K223" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L223" s="32"/>
+      <c r="L223" s="33"/>
       <c r="M223" s="21" t="s">
         <v>19</v>
       </c>
@@ -14127,7 +14133,7 @@
       <c r="K224" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L224" s="32"/>
+      <c r="L224" s="33"/>
       <c r="M224" s="21" t="s">
         <v>19</v>
       </c>
@@ -14188,7 +14194,7 @@
       <c r="K225" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L225" s="32"/>
+      <c r="L225" s="33"/>
       <c r="M225" s="21" t="s">
         <v>19</v>
       </c>
@@ -14249,7 +14255,7 @@
       <c r="K226" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L226" s="32"/>
+      <c r="L226" s="33"/>
       <c r="M226" s="21" t="s">
         <v>19</v>
       </c>
@@ -14307,7 +14313,7 @@
       <c r="K227" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L227" s="32"/>
+      <c r="L227" s="33"/>
       <c r="M227" s="21" t="s">
         <v>19</v>
       </c>
@@ -15012,7 +15018,7 @@
       <c r="K241" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L241" s="32" t="s">
+      <c r="L241" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M241" s="21" t="s">
@@ -15075,7 +15081,7 @@
       <c r="K242" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L242" s="32"/>
+      <c r="L242" s="33"/>
       <c r="M242" s="21" t="s">
         <v>19</v>
       </c>
@@ -15136,7 +15142,7 @@
       <c r="K243" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L243" s="32"/>
+      <c r="L243" s="33"/>
       <c r="M243" s="21" t="s">
         <v>19</v>
       </c>
@@ -15197,7 +15203,7 @@
       <c r="K244" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L244" s="32"/>
+      <c r="L244" s="33"/>
       <c r="M244" s="21" t="s">
         <v>19</v>
       </c>
@@ -15523,11 +15529,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L190:L194"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L197:L202"/>
+    <mergeCell ref="L206:L207"/>
+    <mergeCell ref="L213:L215"/>
+    <mergeCell ref="L223:L227"/>
+    <mergeCell ref="L241:L244"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="L28:L31"/>
     <mergeCell ref="L166:L168"/>
@@ -15535,11 +15541,11 @@
     <mergeCell ref="L174:L177"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
-    <mergeCell ref="L197:L202"/>
-    <mergeCell ref="L206:L207"/>
-    <mergeCell ref="L213:L215"/>
-    <mergeCell ref="L223:L227"/>
-    <mergeCell ref="L241:L244"/>
+    <mergeCell ref="L190:L194"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
